--- a/data/pca/factorExposure/factorExposure_2011-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02196042457991556</v>
+        <v>-0.01865189487701973</v>
       </c>
       <c r="C2">
-        <v>-0.0159542227060888</v>
+        <v>0.001220736021888927</v>
       </c>
       <c r="D2">
-        <v>-0.05713717587175321</v>
+        <v>-0.006688830151237824</v>
       </c>
       <c r="E2">
-        <v>-0.03287838268246131</v>
+        <v>-0.04065378876794643</v>
       </c>
       <c r="F2">
-        <v>0.04329816325882598</v>
+        <v>2.675627279042247e-05</v>
       </c>
       <c r="G2">
-        <v>-0.02263074005501374</v>
+        <v>0.02862545853294234</v>
       </c>
       <c r="H2">
-        <v>-0.02834899860187141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01362318764143427</v>
+      </c>
+      <c r="I2">
+        <v>-0.04056082258648311</v>
+      </c>
+      <c r="J2">
+        <v>0.0242117562254353</v>
+      </c>
+      <c r="K2">
+        <v>-0.04217674664676664</v>
+      </c>
+      <c r="L2">
+        <v>-0.04918110363089064</v>
+      </c>
+      <c r="M2">
+        <v>-0.003044541055359956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07153977811319459</v>
+        <v>-0.1032752202566008</v>
       </c>
       <c r="C4">
-        <v>0.05364882423465559</v>
+        <v>-0.07763767778699247</v>
       </c>
       <c r="D4">
-        <v>-0.03486543477685122</v>
+        <v>-0.02170501356857522</v>
       </c>
       <c r="E4">
-        <v>-0.0431744220779036</v>
+        <v>-0.04828123749237184</v>
       </c>
       <c r="F4">
-        <v>-0.00966776332009147</v>
+        <v>0.115482217039341</v>
       </c>
       <c r="G4">
-        <v>-0.01855018248913724</v>
+        <v>-0.01139597222688169</v>
       </c>
       <c r="H4">
-        <v>0.007851269809199089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.05761796911151543</v>
+      </c>
+      <c r="I4">
+        <v>0.002257209774029365</v>
+      </c>
+      <c r="J4">
+        <v>-0.07758256598207956</v>
+      </c>
+      <c r="K4">
+        <v>-0.004272322036047134</v>
+      </c>
+      <c r="L4">
+        <v>0.07329216151349094</v>
+      </c>
+      <c r="M4">
+        <v>0.03325385937961044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1328728360465012</v>
+        <v>-0.130297888705605</v>
       </c>
       <c r="C6">
-        <v>0.03912997248657132</v>
+        <v>-0.0567666822986054</v>
       </c>
       <c r="D6">
-        <v>-0.06396380758203184</v>
+        <v>-0.00868666423190181</v>
       </c>
       <c r="E6">
-        <v>-0.09682646969199102</v>
+        <v>-0.01606044468766116</v>
       </c>
       <c r="F6">
-        <v>-0.06932066884634695</v>
+        <v>0.04336968349172329</v>
       </c>
       <c r="G6">
-        <v>0.0924121356305046</v>
+        <v>-0.1845632817518482</v>
       </c>
       <c r="H6">
-        <v>0.2969576717828898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.1025317526606187</v>
+      </c>
+      <c r="I6">
+        <v>-0.04853063632806908</v>
+      </c>
+      <c r="J6">
+        <v>-0.3907438444736113</v>
+      </c>
+      <c r="K6">
+        <v>0.1546211699613413</v>
+      </c>
+      <c r="L6">
+        <v>-0.1040060810798173</v>
+      </c>
+      <c r="M6">
+        <v>0.03277626882488641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06652175314828269</v>
+        <v>-0.07303042079469184</v>
       </c>
       <c r="C7">
-        <v>0.0575422998681941</v>
+        <v>-0.07287130578341831</v>
       </c>
       <c r="D7">
-        <v>-0.05368438216471939</v>
+        <v>-0.007814544864063645</v>
       </c>
       <c r="E7">
-        <v>-0.03673658717081885</v>
+        <v>-0.0483056475554214</v>
       </c>
       <c r="F7">
-        <v>-0.03636455257999227</v>
+        <v>0.01501114641701181</v>
       </c>
       <c r="G7">
-        <v>-0.002226208375916645</v>
+        <v>0.00838027309828831</v>
       </c>
       <c r="H7">
-        <v>-0.009986364564841354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.05012673028576508</v>
+      </c>
+      <c r="I7">
+        <v>0.04533623332617479</v>
+      </c>
+      <c r="J7">
+        <v>0.008949647576427857</v>
+      </c>
+      <c r="K7">
+        <v>-0.008892947140733297</v>
+      </c>
+      <c r="L7">
+        <v>0.08426194520635685</v>
+      </c>
+      <c r="M7">
+        <v>-0.02503503380903592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.026723473867399</v>
+        <v>-0.03806346318728117</v>
       </c>
       <c r="C8">
-        <v>0.007212758869566464</v>
+        <v>-0.0118433895101153</v>
       </c>
       <c r="D8">
-        <v>-0.04183017976376791</v>
+        <v>-0.01885039983121031</v>
       </c>
       <c r="E8">
-        <v>-0.06575163740909631</v>
+        <v>-0.04912060159682999</v>
       </c>
       <c r="F8">
-        <v>0.05189262066975453</v>
+        <v>0.09917292429297216</v>
       </c>
       <c r="G8">
-        <v>0.04366913583742338</v>
+        <v>-0.008817433814388091</v>
       </c>
       <c r="H8">
-        <v>-0.02640090491470577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.02402470367128493</v>
+      </c>
+      <c r="I8">
+        <v>-0.01479548604169249</v>
+      </c>
+      <c r="J8">
+        <v>-0.06307195018169819</v>
+      </c>
+      <c r="K8">
+        <v>-0.02649957182182841</v>
+      </c>
+      <c r="L8">
+        <v>0.05579210747292117</v>
+      </c>
+      <c r="M8">
+        <v>0.04292905736381716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.0725974331215834</v>
+        <v>-0.08276053710337625</v>
       </c>
       <c r="C9">
-        <v>0.06715114417676286</v>
+        <v>-0.06790304918945936</v>
       </c>
       <c r="D9">
-        <v>-0.04176849163005966</v>
+        <v>-0.002202704918752837</v>
       </c>
       <c r="E9">
-        <v>-0.03928352953413228</v>
+        <v>-0.03316531309884623</v>
       </c>
       <c r="F9">
-        <v>0.00838041068079432</v>
+        <v>0.110102384791371</v>
       </c>
       <c r="G9">
-        <v>-0.02712685048781724</v>
+        <v>-0.002024964313544315</v>
       </c>
       <c r="H9">
-        <v>0.001508831787497238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.05415057692755139</v>
+      </c>
+      <c r="I9">
+        <v>0.02388283928926551</v>
+      </c>
+      <c r="J9">
+        <v>-0.04750961917559999</v>
+      </c>
+      <c r="K9">
+        <v>-0.006901025668609125</v>
+      </c>
+      <c r="L9">
+        <v>0.03542712282568759</v>
+      </c>
+      <c r="M9">
+        <v>-0.002671005753483873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06320796926567947</v>
+        <v>-0.1121343242389096</v>
       </c>
       <c r="C10">
-        <v>-0.138233735763636</v>
+        <v>0.1706569429196317</v>
       </c>
       <c r="D10">
-        <v>-0.04883960172502019</v>
+        <v>-0.01258110232915759</v>
       </c>
       <c r="E10">
-        <v>-0.0306031109652343</v>
+        <v>-0.05073135780091214</v>
       </c>
       <c r="F10">
-        <v>-0.03567802607005686</v>
+        <v>-0.02106953457388215</v>
       </c>
       <c r="G10">
-        <v>0.02041538626636126</v>
+        <v>-0.005959339339500955</v>
       </c>
       <c r="H10">
-        <v>0.04297171667479891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.0006330734517355213</v>
+      </c>
+      <c r="I10">
+        <v>0.05243093416932332</v>
+      </c>
+      <c r="J10">
+        <v>0.05749587106218821</v>
+      </c>
+      <c r="K10">
+        <v>0.01749304110383122</v>
+      </c>
+      <c r="L10">
+        <v>-0.01066992438202829</v>
+      </c>
+      <c r="M10">
+        <v>-0.08385605101048617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06536369922374981</v>
+        <v>-0.06744018029394264</v>
       </c>
       <c r="C11">
-        <v>0.08683237752042085</v>
+        <v>-0.07013450528878483</v>
       </c>
       <c r="D11">
-        <v>-0.04022260976624326</v>
+        <v>0.03053367138432845</v>
       </c>
       <c r="E11">
-        <v>-0.01038777356803697</v>
+        <v>-0.01787160983209126</v>
       </c>
       <c r="F11">
-        <v>0.05830342240107296</v>
+        <v>0.1050236389628436</v>
       </c>
       <c r="G11">
-        <v>-0.01920741115089403</v>
+        <v>0.02513564565063303</v>
       </c>
       <c r="H11">
-        <v>-0.05362158716641453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.04107474035066853</v>
+      </c>
+      <c r="I11">
+        <v>0.0660453425730909</v>
+      </c>
+      <c r="J11">
+        <v>0.04818016970560105</v>
+      </c>
+      <c r="K11">
+        <v>-0.06627024324540294</v>
+      </c>
+      <c r="L11">
+        <v>-0.01655812734453143</v>
+      </c>
+      <c r="M11">
+        <v>-0.08937196802275288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05999882691754999</v>
+        <v>-0.07197062928301221</v>
       </c>
       <c r="C12">
-        <v>0.05115305865368169</v>
+        <v>-0.06374747270891931</v>
       </c>
       <c r="D12">
-        <v>-0.02153690628825563</v>
+        <v>0.03127506160371926</v>
       </c>
       <c r="E12">
-        <v>-0.02449994712855187</v>
+        <v>-0.00788492215843546</v>
       </c>
       <c r="F12">
-        <v>0.004664710595635606</v>
+        <v>0.1179125016186296</v>
       </c>
       <c r="G12">
-        <v>-0.009926702376338348</v>
+        <v>0.02790607338773214</v>
       </c>
       <c r="H12">
-        <v>-0.04638073884838514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.02815331618373207</v>
+      </c>
+      <c r="I12">
+        <v>0.06684222351148188</v>
+      </c>
+      <c r="J12">
+        <v>0.01527023569271292</v>
+      </c>
+      <c r="K12">
+        <v>-0.08642489902443115</v>
+      </c>
+      <c r="L12">
+        <v>0.01170687796806672</v>
+      </c>
+      <c r="M12">
+        <v>-0.118700963475641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.04953414555285786</v>
+        <v>-0.04582945552777078</v>
       </c>
       <c r="C13">
-        <v>0.01147882317396749</v>
+        <v>-0.02995431499901036</v>
       </c>
       <c r="D13">
-        <v>-0.0001476263158159031</v>
+        <v>-0.02264600144121519</v>
       </c>
       <c r="E13">
-        <v>-0.01619337978063464</v>
+        <v>-0.0123360270616681</v>
       </c>
       <c r="F13">
-        <v>0.02276554483744187</v>
+        <v>0.0396294669026937</v>
       </c>
       <c r="G13">
-        <v>-0.04732424621185662</v>
+        <v>0.02121608781354297</v>
       </c>
       <c r="H13">
-        <v>-0.007414038346997762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.034399914571626</v>
+      </c>
+      <c r="I13">
+        <v>-0.003984238544449619</v>
+      </c>
+      <c r="J13">
+        <v>-0.02075112649713204</v>
+      </c>
+      <c r="K13">
+        <v>-0.004168992047713218</v>
+      </c>
+      <c r="L13">
+        <v>0.07059532045087162</v>
+      </c>
+      <c r="M13">
+        <v>0.02369458792524963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04092943199478247</v>
+        <v>-0.04100372369443121</v>
       </c>
       <c r="C14">
-        <v>0.02248228716990645</v>
+        <v>-0.02781413925014268</v>
       </c>
       <c r="D14">
-        <v>-0.01789575875376227</v>
+        <v>0.007929054832293473</v>
       </c>
       <c r="E14">
-        <v>0.0112164441221472</v>
+        <v>-0.01584133704579151</v>
       </c>
       <c r="F14">
-        <v>-0.0103254733235683</v>
+        <v>0.05158427905473477</v>
       </c>
       <c r="G14">
-        <v>0.002777532872791065</v>
+        <v>0.02544892210041192</v>
       </c>
       <c r="H14">
-        <v>0.0905803501034468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.06535697348761711</v>
+      </c>
+      <c r="I14">
+        <v>-0.004385241043798318</v>
+      </c>
+      <c r="J14">
+        <v>-0.03828379474976152</v>
+      </c>
+      <c r="K14">
+        <v>0.0430553452920919</v>
+      </c>
+      <c r="L14">
+        <v>0.04067994813398369</v>
+      </c>
+      <c r="M14">
+        <v>0.04554041019568007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03844828887456157</v>
+        <v>-0.02997173329729108</v>
       </c>
       <c r="C15">
-        <v>-0.008981312224398009</v>
+        <v>-0.008495367076735309</v>
       </c>
       <c r="D15">
-        <v>0.005322260392713564</v>
+        <v>-0.05991141638190295</v>
       </c>
       <c r="E15">
-        <v>-0.02046694766871947</v>
+        <v>-0.004717296608135624</v>
       </c>
       <c r="F15">
-        <v>-0.01448854672145731</v>
+        <v>0.006492004302627919</v>
       </c>
       <c r="G15">
-        <v>-0.01278669392604227</v>
+        <v>-0.03625864245386501</v>
       </c>
       <c r="H15">
-        <v>0.01445619020704966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03819744094446374</v>
+      </c>
+      <c r="I15">
+        <v>-0.03068754810089434</v>
+      </c>
+      <c r="J15">
+        <v>-0.02427600672074786</v>
+      </c>
+      <c r="K15">
+        <v>0.04055718539688664</v>
+      </c>
+      <c r="L15">
+        <v>0.04958335150129686</v>
+      </c>
+      <c r="M15">
+        <v>-0.01083004570591198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.0517450402826418</v>
+        <v>-0.07218377966018175</v>
       </c>
       <c r="C16">
-        <v>0.08249341140003512</v>
+        <v>-0.07828390387082032</v>
       </c>
       <c r="D16">
-        <v>-0.03208054365882794</v>
+        <v>0.02045262448013247</v>
       </c>
       <c r="E16">
-        <v>-0.0288500947240508</v>
+        <v>-0.01732102634413445</v>
       </c>
       <c r="F16">
-        <v>0.03189948172137954</v>
+        <v>0.1045970204016854</v>
       </c>
       <c r="G16">
-        <v>-0.0339552426289013</v>
+        <v>0.03607558668373503</v>
       </c>
       <c r="H16">
-        <v>-0.04969391970393427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.0402849387344531</v>
+      </c>
+      <c r="I16">
+        <v>0.06961779357350124</v>
+      </c>
+      <c r="J16">
+        <v>0.02394106685561032</v>
+      </c>
+      <c r="K16">
+        <v>-0.07609547211501627</v>
+      </c>
+      <c r="L16">
+        <v>0.01048213475455375</v>
+      </c>
+      <c r="M16">
+        <v>-0.07826873989221755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04137560702739182</v>
+        <v>-0.04455706438162212</v>
       </c>
       <c r="C20">
-        <v>0.0455094361952486</v>
+        <v>-0.03162258861143429</v>
       </c>
       <c r="D20">
-        <v>-0.01179281852694932</v>
+        <v>-0.02555109445749166</v>
       </c>
       <c r="E20">
-        <v>-0.009554922257327854</v>
+        <v>-0.01739263046395819</v>
       </c>
       <c r="F20">
-        <v>0.007815773400932573</v>
+        <v>0.0540167639752038</v>
       </c>
       <c r="G20">
-        <v>-0.04072351127188867</v>
+        <v>0.02687660712989135</v>
       </c>
       <c r="H20">
-        <v>-0.007458976957740838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.03648432234716371</v>
+      </c>
+      <c r="I20">
+        <v>0.04039604986531321</v>
+      </c>
+      <c r="J20">
+        <v>-0.04736287290570929</v>
+      </c>
+      <c r="K20">
+        <v>-0.004082444323294459</v>
+      </c>
+      <c r="L20">
+        <v>0.05712971336898054</v>
+      </c>
+      <c r="M20">
+        <v>-0.03230891331122476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.01250950118475514</v>
+        <v>-0.02763135283871376</v>
       </c>
       <c r="C21">
-        <v>0.02148807466757887</v>
+        <v>-0.02119726097826534</v>
       </c>
       <c r="D21">
-        <v>-0.005163010138169454</v>
+        <v>-0.007591959120379897</v>
       </c>
       <c r="E21">
-        <v>-0.07279272625368159</v>
+        <v>-0.02493759884215132</v>
       </c>
       <c r="F21">
-        <v>-0.05307126275132545</v>
+        <v>0.06343365393808223</v>
       </c>
       <c r="G21">
-        <v>0.08389227707089351</v>
+        <v>-0.09110296218484089</v>
       </c>
       <c r="H21">
-        <v>0.03421587537194277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01164177781838216</v>
+      </c>
+      <c r="I21">
+        <v>0.07891857753424704</v>
+      </c>
+      <c r="J21">
+        <v>-0.002094162376282361</v>
+      </c>
+      <c r="K21">
+        <v>0.04520452665730201</v>
+      </c>
+      <c r="L21">
+        <v>0.09486002152067143</v>
+      </c>
+      <c r="M21">
+        <v>0.0304490097658145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01115391238504299</v>
+        <v>-0.04216287936673423</v>
       </c>
       <c r="C22">
-        <v>0.04977240370745856</v>
+        <v>-0.03173459573846209</v>
       </c>
       <c r="D22">
-        <v>0.1334392710300069</v>
+        <v>-0.6547094577958781</v>
       </c>
       <c r="E22">
-        <v>-0.4531284646421064</v>
+        <v>-0.04974840381516762</v>
       </c>
       <c r="F22">
-        <v>-0.2245980387584858</v>
+        <v>-0.07671903230006556</v>
       </c>
       <c r="G22">
-        <v>-0.2458705553751227</v>
+        <v>0.07304834145709299</v>
       </c>
       <c r="H22">
-        <v>-0.1763660172496675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07204880261216756</v>
+      </c>
+      <c r="I22">
+        <v>0.116768068443132</v>
+      </c>
+      <c r="J22">
+        <v>0.04509768337662684</v>
+      </c>
+      <c r="K22">
+        <v>0.02887884694133316</v>
+      </c>
+      <c r="L22">
+        <v>-0.02928591939389009</v>
+      </c>
+      <c r="M22">
+        <v>0.03610290944728572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.0121353903826616</v>
+        <v>-0.04286062016544014</v>
       </c>
       <c r="C23">
-        <v>0.04878640927884342</v>
+        <v>-0.0321397881504476</v>
       </c>
       <c r="D23">
-        <v>0.133612296293538</v>
+        <v>-0.6563209615562515</v>
       </c>
       <c r="E23">
-        <v>-0.4544145657278581</v>
+        <v>-0.050210906881865</v>
       </c>
       <c r="F23">
-        <v>-0.2221318881707553</v>
+        <v>-0.07219626625398044</v>
       </c>
       <c r="G23">
-        <v>-0.2422297456472667</v>
+        <v>0.07278978341827301</v>
       </c>
       <c r="H23">
-        <v>-0.174400791126773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07416394505670391</v>
+      </c>
+      <c r="I23">
+        <v>0.1136733635029845</v>
+      </c>
+      <c r="J23">
+        <v>0.04266302863372276</v>
+      </c>
+      <c r="K23">
+        <v>0.03018762744363165</v>
+      </c>
+      <c r="L23">
+        <v>-0.03280676092598388</v>
+      </c>
+      <c r="M23">
+        <v>0.03690955167385025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07180637235412719</v>
+        <v>-0.07666959778847336</v>
       </c>
       <c r="C24">
-        <v>0.07707118416621174</v>
+        <v>-0.07524474569326396</v>
       </c>
       <c r="D24">
-        <v>-0.04212551477306838</v>
+        <v>0.01851364670904564</v>
       </c>
       <c r="E24">
-        <v>-0.04068858159355503</v>
+        <v>-0.01981617127456279</v>
       </c>
       <c r="F24">
-        <v>0.0364884881576585</v>
+        <v>0.1103031545502044</v>
       </c>
       <c r="G24">
-        <v>-0.01794744521973857</v>
+        <v>0.02369784175523841</v>
       </c>
       <c r="H24">
-        <v>-0.03545426412673477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.02838514221942198</v>
+      </c>
+      <c r="I24">
+        <v>0.06351787227402497</v>
+      </c>
+      <c r="J24">
+        <v>0.02270504671737622</v>
+      </c>
+      <c r="K24">
+        <v>-0.06693674611836331</v>
+      </c>
+      <c r="L24">
+        <v>-0.01776509276621113</v>
+      </c>
+      <c r="M24">
+        <v>-0.08998433453592046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06618845333488284</v>
+        <v>-0.0741370050818583</v>
       </c>
       <c r="C25">
-        <v>0.04027838143782714</v>
+        <v>-0.04911828481984929</v>
       </c>
       <c r="D25">
-        <v>-0.03484943788590628</v>
+        <v>0.03203034834113326</v>
       </c>
       <c r="E25">
-        <v>-0.0475064529569221</v>
+        <v>-0.01657647477094154</v>
       </c>
       <c r="F25">
-        <v>0.04516720453885527</v>
+        <v>0.115203886797348</v>
       </c>
       <c r="G25">
-        <v>-0.02846421389068877</v>
+        <v>0.04096961214153801</v>
       </c>
       <c r="H25">
-        <v>-0.006522273269947059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.04298353558374311</v>
+      </c>
+      <c r="I25">
+        <v>0.06450283706343746</v>
+      </c>
+      <c r="J25">
+        <v>0.01809768549396914</v>
+      </c>
+      <c r="K25">
+        <v>-0.07704031709459476</v>
+      </c>
+      <c r="L25">
+        <v>-0.037148643016882</v>
+      </c>
+      <c r="M25">
+        <v>-0.09189096020958876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.0401127825017987</v>
+        <v>-0.04263038589702942</v>
       </c>
       <c r="C26">
-        <v>0.03006399497015015</v>
+        <v>-0.02242194185997347</v>
       </c>
       <c r="D26">
-        <v>-0.04030595212091976</v>
+        <v>-0.01375619377618913</v>
       </c>
       <c r="E26">
-        <v>0.001610958340549122</v>
+        <v>-0.001640690333238538</v>
       </c>
       <c r="F26">
-        <v>-0.01591554984018589</v>
+        <v>0.03270627234020672</v>
       </c>
       <c r="G26">
-        <v>-0.03121650292141952</v>
+        <v>0.01043284718826614</v>
       </c>
       <c r="H26">
-        <v>-0.000514758807311772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.03571830392426166</v>
+      </c>
+      <c r="I26">
+        <v>0.02663074868617869</v>
+      </c>
+      <c r="J26">
+        <v>-0.002252819397636871</v>
+      </c>
+      <c r="K26">
+        <v>0.08612517509616335</v>
+      </c>
+      <c r="L26">
+        <v>0.132683940838988</v>
+      </c>
+      <c r="M26">
+        <v>0.007523425292484589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.124784946508487</v>
+        <v>-0.1468023945860495</v>
       </c>
       <c r="C28">
-        <v>-0.2975866518356804</v>
+        <v>0.2865499240888583</v>
       </c>
       <c r="D28">
-        <v>-0.01678171312923473</v>
+        <v>0.006781050919232479</v>
       </c>
       <c r="E28">
-        <v>0.01662383259763486</v>
+        <v>-0.02555436311968344</v>
       </c>
       <c r="F28">
-        <v>-0.04751550372056459</v>
+        <v>-0.002598960934091643</v>
       </c>
       <c r="G28">
-        <v>0.02775264079598985</v>
+        <v>-0.01198912357267999</v>
       </c>
       <c r="H28">
-        <v>-0.05645804471190862</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01587336159112842</v>
+      </c>
+      <c r="I28">
+        <v>0.005507306882465861</v>
+      </c>
+      <c r="J28">
+        <v>-0.005882150300665231</v>
+      </c>
+      <c r="K28">
+        <v>-0.001851479045566071</v>
+      </c>
+      <c r="L28">
+        <v>0.04605056546731959</v>
+      </c>
+      <c r="M28">
+        <v>0.03715394747981162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05258139427326531</v>
+        <v>-0.04277622405226767</v>
       </c>
       <c r="C29">
-        <v>0.0198694542338679</v>
+        <v>-0.02440930511187436</v>
       </c>
       <c r="D29">
-        <v>-0.008746233335124977</v>
+        <v>-0.001875303655469904</v>
       </c>
       <c r="E29">
-        <v>-0.01627478653678251</v>
+        <v>-0.01760375620916606</v>
       </c>
       <c r="F29">
-        <v>-0.004598884574627237</v>
+        <v>0.05067757087430508</v>
       </c>
       <c r="G29">
-        <v>-0.01571318210506955</v>
+        <v>0.04089866765453689</v>
       </c>
       <c r="H29">
-        <v>0.02919272737996361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.0475057493212084</v>
+      </c>
+      <c r="I29">
+        <v>0.007319821365195831</v>
+      </c>
+      <c r="J29">
+        <v>-0.02495198622779077</v>
+      </c>
+      <c r="K29">
+        <v>0.04176376120928262</v>
+      </c>
+      <c r="L29">
+        <v>0.03029341881575225</v>
+      </c>
+      <c r="M29">
+        <v>0.02662142564486697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1240355019131573</v>
+        <v>-0.09684365147023678</v>
       </c>
       <c r="C30">
-        <v>0.05286511968205164</v>
+        <v>-0.06599398664934222</v>
       </c>
       <c r="D30">
-        <v>-0.06951925242372062</v>
+        <v>-0.001129291654135827</v>
       </c>
       <c r="E30">
-        <v>-0.08331070301740857</v>
+        <v>-0.02503110662941384</v>
       </c>
       <c r="F30">
-        <v>-0.009118689969910821</v>
+        <v>0.1822841301863016</v>
       </c>
       <c r="G30">
-        <v>0.01830541505509124</v>
+        <v>0.05039799287604662</v>
       </c>
       <c r="H30">
-        <v>-0.0430532925077344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.0285333452865966</v>
+      </c>
+      <c r="I30">
+        <v>0.2522079928196656</v>
+      </c>
+      <c r="J30">
+        <v>-0.169297409851167</v>
+      </c>
+      <c r="K30">
+        <v>-0.0324452197827135</v>
+      </c>
+      <c r="L30">
+        <v>0.1812480941469769</v>
+      </c>
+      <c r="M30">
+        <v>0.2582315003522043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04656950207592415</v>
+        <v>-0.03489764773863991</v>
       </c>
       <c r="C31">
-        <v>0.02729840540218655</v>
+        <v>-0.04515026231408917</v>
       </c>
       <c r="D31">
-        <v>0.007561825849587782</v>
+        <v>-0.007121566842667367</v>
       </c>
       <c r="E31">
-        <v>0.0151166747158268</v>
+        <v>0.00882833393510543</v>
       </c>
       <c r="F31">
-        <v>-0.02416945268062396</v>
+        <v>0.01423535870647492</v>
       </c>
       <c r="G31">
-        <v>-0.04252121013958434</v>
+        <v>0.02937509106978851</v>
       </c>
       <c r="H31">
-        <v>0.00378677380342007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04345337566184596</v>
+      </c>
+      <c r="I31">
+        <v>-0.02245387378567339</v>
+      </c>
+      <c r="J31">
+        <v>-0.02064613916696878</v>
+      </c>
+      <c r="K31">
+        <v>-0.009652677973973275</v>
+      </c>
+      <c r="L31">
+        <v>0.0168268496954177</v>
+      </c>
+      <c r="M31">
+        <v>0.001338251500203442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02083510614376358</v>
+        <v>-0.04094829905535177</v>
       </c>
       <c r="C32">
-        <v>-0.01589552600530641</v>
+        <v>0.003505418336529466</v>
       </c>
       <c r="D32">
-        <v>0.0251326251793941</v>
+        <v>0.009258895879508056</v>
       </c>
       <c r="E32">
-        <v>-0.09355811406440416</v>
+        <v>-0.006003554288240768</v>
       </c>
       <c r="F32">
-        <v>0.041341314571476</v>
+        <v>0.09112043427740274</v>
       </c>
       <c r="G32">
-        <v>-0.0304919299523602</v>
+        <v>-0.02941606148511719</v>
       </c>
       <c r="H32">
-        <v>-0.06235569285160121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.05233873917973372</v>
+      </c>
+      <c r="I32">
+        <v>-0.06602491218962658</v>
+      </c>
+      <c r="J32">
+        <v>0.03326041970079941</v>
+      </c>
+      <c r="K32">
+        <v>-0.02494422670345798</v>
+      </c>
+      <c r="L32">
+        <v>0.05942514777916343</v>
+      </c>
+      <c r="M32">
+        <v>0.1463000615605201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1008153107468702</v>
+        <v>-0.09843132270606057</v>
       </c>
       <c r="C33">
-        <v>0.0499456211751276</v>
+        <v>-0.06618310171617861</v>
       </c>
       <c r="D33">
-        <v>-0.004578884711569443</v>
+        <v>0.008991156365965038</v>
       </c>
       <c r="E33">
-        <v>-0.008137609532874627</v>
+        <v>0.01491740233477262</v>
       </c>
       <c r="F33">
-        <v>0.02023821145546156</v>
+        <v>0.06495559173044635</v>
       </c>
       <c r="G33">
-        <v>-0.05022342524257893</v>
+        <v>0.03231910064304142</v>
       </c>
       <c r="H33">
-        <v>-0.01820701266028143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.05088638999059267</v>
+      </c>
+      <c r="I33">
+        <v>0.031225959513074</v>
+      </c>
+      <c r="J33">
+        <v>-0.02236968476677607</v>
+      </c>
+      <c r="K33">
+        <v>0.03879985889384693</v>
+      </c>
+      <c r="L33">
+        <v>0.008090986137218342</v>
+      </c>
+      <c r="M33">
+        <v>-0.001163408207232354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05304399562317486</v>
+        <v>-0.06394876217603289</v>
       </c>
       <c r="C34">
-        <v>0.08243873421650991</v>
+        <v>-0.06285681767662923</v>
       </c>
       <c r="D34">
-        <v>-0.02622161192936206</v>
+        <v>0.02624269721534939</v>
       </c>
       <c r="E34">
-        <v>-0.04070683653919577</v>
+        <v>-0.01435806368561732</v>
       </c>
       <c r="F34">
-        <v>0.02318032570790363</v>
+        <v>0.09591167563740914</v>
       </c>
       <c r="G34">
-        <v>-0.01988529729620137</v>
+        <v>0.02638284103439024</v>
       </c>
       <c r="H34">
-        <v>-0.02630764001786464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.04788220117867354</v>
+      </c>
+      <c r="I34">
+        <v>0.049531661042611</v>
+      </c>
+      <c r="J34">
+        <v>0.01158640877295435</v>
+      </c>
+      <c r="K34">
+        <v>-0.05150027066221268</v>
+      </c>
+      <c r="L34">
+        <v>-0.01072515028147903</v>
+      </c>
+      <c r="M34">
+        <v>-0.1133722297046986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.04211989932807551</v>
+        <v>-0.02527635428020946</v>
       </c>
       <c r="C35">
-        <v>0.03837319825158578</v>
+        <v>-0.02433821135719587</v>
       </c>
       <c r="D35">
-        <v>-0.0096849850265344</v>
+        <v>-0.001230023509049735</v>
       </c>
       <c r="E35">
-        <v>-0.007678285263434714</v>
+        <v>0.002593689211777811</v>
       </c>
       <c r="F35">
-        <v>0.005012450748513722</v>
+        <v>0.02084034712039955</v>
       </c>
       <c r="G35">
-        <v>-0.02898782433437877</v>
+        <v>0.02526410456001712</v>
       </c>
       <c r="H35">
-        <v>-0.008500764373073948</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03803753138947919</v>
+      </c>
+      <c r="I35">
+        <v>0.05337562238706258</v>
+      </c>
+      <c r="J35">
+        <v>0.004263906597312386</v>
+      </c>
+      <c r="K35">
+        <v>-0.01571619440695165</v>
+      </c>
+      <c r="L35">
+        <v>0.05582326788409166</v>
+      </c>
+      <c r="M35">
+        <v>0.006850511983174914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03010852161513296</v>
+        <v>-0.0294717704581166</v>
       </c>
       <c r="C36">
-        <v>0.01959823517357068</v>
+        <v>-0.02095849882549202</v>
       </c>
       <c r="D36">
-        <v>-0.02767344948728241</v>
+        <v>-0.01495148104237953</v>
       </c>
       <c r="E36">
-        <v>-0.01864694096334215</v>
+        <v>-0.01349406113940408</v>
       </c>
       <c r="F36">
-        <v>0.00531015516902589</v>
+        <v>0.0601664181801647</v>
       </c>
       <c r="G36">
-        <v>-0.03966383524083996</v>
+        <v>0.01582491255941959</v>
       </c>
       <c r="H36">
-        <v>0.02720507817973707</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03788020616430599</v>
+      </c>
+      <c r="I36">
+        <v>0.02941454648501864</v>
+      </c>
+      <c r="J36">
+        <v>-0.03898127157744422</v>
+      </c>
+      <c r="K36">
+        <v>0.02528804551764754</v>
+      </c>
+      <c r="L36">
+        <v>0.03638233254733893</v>
+      </c>
+      <c r="M36">
+        <v>-0.03203364340187445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04090042356807564</v>
+        <v>-0.03023114821577022</v>
       </c>
       <c r="C38">
-        <v>0.03413461315053202</v>
+        <v>-0.04798182346892538</v>
       </c>
       <c r="D38">
-        <v>0.02208288337207852</v>
+        <v>-0.02266140556711033</v>
       </c>
       <c r="E38">
-        <v>-0.03596866454753289</v>
+        <v>-0.003892012964262869</v>
       </c>
       <c r="F38">
-        <v>0.005830735678257631</v>
+        <v>-0.04165359469696759</v>
       </c>
       <c r="G38">
-        <v>-0.01285574616776526</v>
+        <v>0.04936964865129201</v>
       </c>
       <c r="H38">
-        <v>-0.04798203441956898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.03649994424959287</v>
+      </c>
+      <c r="I38">
+        <v>0.01540271406795762</v>
+      </c>
+      <c r="J38">
+        <v>0.05385928405647044</v>
+      </c>
+      <c r="K38">
+        <v>0.09941313749546829</v>
+      </c>
+      <c r="L38">
+        <v>0.0669440410169212</v>
+      </c>
+      <c r="M38">
+        <v>0.1486130288332825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09335225882837486</v>
+        <v>-0.09913613754632555</v>
       </c>
       <c r="C39">
-        <v>0.09926934159279296</v>
+        <v>-0.09107979909025726</v>
       </c>
       <c r="D39">
-        <v>-0.02059831399742611</v>
+        <v>0.0848886776690341</v>
       </c>
       <c r="E39">
-        <v>-0.0345707608908333</v>
+        <v>0.01343796921725858</v>
       </c>
       <c r="F39">
-        <v>0.0475433893611441</v>
+        <v>0.151211614231568</v>
       </c>
       <c r="G39">
-        <v>0.01095453033460709</v>
+        <v>0.09768719089277696</v>
       </c>
       <c r="H39">
-        <v>-0.1155435687132268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.01157762015168623</v>
+      </c>
+      <c r="I39">
+        <v>0.1531396967280813</v>
+      </c>
+      <c r="J39">
+        <v>0.03802574685357697</v>
+      </c>
+      <c r="K39">
+        <v>-0.1887244051569088</v>
+      </c>
+      <c r="L39">
+        <v>0.03167163898609734</v>
+      </c>
+      <c r="M39">
+        <v>0.05255914362671469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05557021438577153</v>
+        <v>-0.0338471232390349</v>
       </c>
       <c r="C40">
-        <v>0.04812243455160715</v>
+        <v>-0.05826483118307263</v>
       </c>
       <c r="D40">
-        <v>0.04348273545348806</v>
+        <v>-0.05043047988387964</v>
       </c>
       <c r="E40">
-        <v>-0.1419534658403515</v>
+        <v>0.002793301422242289</v>
       </c>
       <c r="F40">
-        <v>0.0283259685209926</v>
+        <v>0.1219068264068879</v>
       </c>
       <c r="G40">
-        <v>-0.05933943244853965</v>
+        <v>-0.05894074929295186</v>
       </c>
       <c r="H40">
-        <v>-0.1164691820309299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.02184389770412992</v>
+      </c>
+      <c r="I40">
+        <v>0.05447176842289411</v>
+      </c>
+      <c r="J40">
+        <v>0.08728153683581351</v>
+      </c>
+      <c r="K40">
+        <v>0.07643390925578343</v>
+      </c>
+      <c r="L40">
+        <v>0.08212124931394431</v>
+      </c>
+      <c r="M40">
+        <v>0.01387335696797814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04399894554601548</v>
+        <v>-0.03643262697007189</v>
       </c>
       <c r="C41">
-        <v>0.05218722144036708</v>
+        <v>-0.03619262453158108</v>
       </c>
       <c r="D41">
-        <v>-0.0148265180826988</v>
+        <v>0.01820064498579434</v>
       </c>
       <c r="E41">
-        <v>0.003228330129428168</v>
+        <v>-0.0005038641816609616</v>
       </c>
       <c r="F41">
-        <v>0.01693252453289191</v>
+        <v>0.01465443270092131</v>
       </c>
       <c r="G41">
-        <v>-0.02282553178495864</v>
+        <v>0.02856643542230662</v>
       </c>
       <c r="H41">
-        <v>-0.02585087598470789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.009838301048889893</v>
+      </c>
+      <c r="I41">
+        <v>0.002016657958723152</v>
+      </c>
+      <c r="J41">
+        <v>0.01519471950337431</v>
+      </c>
+      <c r="K41">
+        <v>0.0139275285691806</v>
+      </c>
+      <c r="L41">
+        <v>0.04390795018898692</v>
+      </c>
+      <c r="M41">
+        <v>-0.02982179345082503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05515135358563294</v>
+        <v>-0.05072951263060411</v>
       </c>
       <c r="C43">
-        <v>0.04286607003957337</v>
+        <v>-0.04700415515960733</v>
       </c>
       <c r="D43">
-        <v>-0.03007318576101593</v>
+        <v>-0.0139109510602413</v>
       </c>
       <c r="E43">
-        <v>-0.01840126652264263</v>
+        <v>-0.01275781920143048</v>
       </c>
       <c r="F43">
-        <v>-0.01579502473857476</v>
+        <v>0.008472260131310801</v>
       </c>
       <c r="G43">
-        <v>-0.03018858987822592</v>
+        <v>0.0621593091253116</v>
       </c>
       <c r="H43">
-        <v>-0.01512672430201989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-1.616749409572225e-05</v>
+      </c>
+      <c r="I43">
+        <v>0.007631944335720269</v>
+      </c>
+      <c r="J43">
+        <v>0.007520686474050557</v>
+      </c>
+      <c r="K43">
+        <v>-0.007520708511799347</v>
+      </c>
+      <c r="L43">
+        <v>0.02800281062380659</v>
+      </c>
+      <c r="M43">
+        <v>-0.008213079156983412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.0514670652524564</v>
+        <v>-0.08119499531062975</v>
       </c>
       <c r="C44">
-        <v>0.00527622671930226</v>
+        <v>-0.06105135611783163</v>
       </c>
       <c r="D44">
-        <v>-0.07407526572548402</v>
+        <v>-0.06494381745096495</v>
       </c>
       <c r="E44">
-        <v>-0.1365924275646346</v>
+        <v>-0.09980875456653318</v>
       </c>
       <c r="F44">
-        <v>0.04603103630120974</v>
+        <v>0.1631410354168086</v>
       </c>
       <c r="G44">
-        <v>-0.01716888980938132</v>
+        <v>0.01470991980963146</v>
       </c>
       <c r="H44">
-        <v>-0.01642785153985718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.07387065045391188</v>
+      </c>
+      <c r="I44">
+        <v>0.06781899812554745</v>
+      </c>
+      <c r="J44">
+        <v>0.02262319857592875</v>
+      </c>
+      <c r="K44">
+        <v>-0.0001379933386562495</v>
+      </c>
+      <c r="L44">
+        <v>0.04580040041246093</v>
+      </c>
+      <c r="M44">
+        <v>0.04327233758592168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01996694995459485</v>
+        <v>-0.03232977114370413</v>
       </c>
       <c r="C46">
-        <v>0.04360589266723489</v>
+        <v>-0.03807235809297039</v>
       </c>
       <c r="D46">
-        <v>-0.01399780210658596</v>
+        <v>-0.04531548916649263</v>
       </c>
       <c r="E46">
-        <v>-0.04297345133443541</v>
+        <v>-0.03835238294304674</v>
       </c>
       <c r="F46">
-        <v>0.002026149976783141</v>
+        <v>0.02920248625745193</v>
       </c>
       <c r="G46">
-        <v>-0.007729215861199864</v>
+        <v>-0.006381920023101752</v>
       </c>
       <c r="H46">
-        <v>-0.006422584077025542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06871215830702175</v>
+      </c>
+      <c r="I46">
+        <v>-0.000530815157313495</v>
+      </c>
+      <c r="J46">
+        <v>-0.02342322193531481</v>
+      </c>
+      <c r="K46">
+        <v>0.06284608450833336</v>
+      </c>
+      <c r="L46">
+        <v>0.0613203022598312</v>
+      </c>
+      <c r="M46">
+        <v>0.001802581862205927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02663863541966972</v>
+        <v>-0.04611190892419587</v>
       </c>
       <c r="C47">
-        <v>0.0004540624339760525</v>
+        <v>-0.02686472885811697</v>
       </c>
       <c r="D47">
-        <v>0.01494532152160792</v>
+        <v>-0.02059839068927478</v>
       </c>
       <c r="E47">
-        <v>-0.06361918857555246</v>
+        <v>-0.01001377994501736</v>
       </c>
       <c r="F47">
-        <v>-0.003746558723876311</v>
+        <v>0.03477228836215762</v>
       </c>
       <c r="G47">
-        <v>-0.04217278920570507</v>
+        <v>0.02846067411693296</v>
       </c>
       <c r="H47">
-        <v>0.04320263606791837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02552003197094194</v>
+      </c>
+      <c r="I47">
+        <v>0.0357004723220188</v>
+      </c>
+      <c r="J47">
+        <v>-0.02636528404027134</v>
+      </c>
+      <c r="K47">
+        <v>0.03668529253070991</v>
+      </c>
+      <c r="L47">
+        <v>0.01287292160466928</v>
+      </c>
+      <c r="M47">
+        <v>-0.01802828043039198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03059084122057874</v>
+        <v>-0.04111881878635049</v>
       </c>
       <c r="C48">
-        <v>0.02790867189359185</v>
+        <v>-0.02100026675344767</v>
       </c>
       <c r="D48">
-        <v>-0.004501291325063501</v>
+        <v>-0.01319536760812437</v>
       </c>
       <c r="E48">
-        <v>-0.03861656947104607</v>
+        <v>-0.002983945845303001</v>
       </c>
       <c r="F48">
-        <v>-0.01525438335840264</v>
+        <v>0.06815657502021229</v>
       </c>
       <c r="G48">
-        <v>-0.05410312716481767</v>
+        <v>-0.02045638799660416</v>
       </c>
       <c r="H48">
-        <v>-0.0007612831296005355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05228800911069705</v>
+      </c>
+      <c r="I48">
+        <v>0.03123285120868802</v>
+      </c>
+      <c r="J48">
+        <v>-0.03451538299895484</v>
+      </c>
+      <c r="K48">
+        <v>-0.01004713551132573</v>
+      </c>
+      <c r="L48">
+        <v>0.04469549183368611</v>
+      </c>
+      <c r="M48">
+        <v>-0.03081965402347777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1913795372064082</v>
+        <v>-0.2245002966531157</v>
       </c>
       <c r="C49">
-        <v>0.1243296349762451</v>
+        <v>-0.08303718015603818</v>
       </c>
       <c r="D49">
-        <v>-0.0855636074756425</v>
+        <v>0.06188702263760684</v>
       </c>
       <c r="E49">
-        <v>0.06454099365844781</v>
+        <v>-0.03038099332341548</v>
       </c>
       <c r="F49">
-        <v>-0.1167917289797171</v>
+        <v>-0.2286604697882018</v>
       </c>
       <c r="G49">
-        <v>0.1616933167550751</v>
+        <v>-0.1473970382255701</v>
       </c>
       <c r="H49">
-        <v>-0.004502821542316755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.01807198012605509</v>
+      </c>
+      <c r="I49">
+        <v>0.1416651072354295</v>
+      </c>
+      <c r="J49">
+        <v>0.1229797991135202</v>
+      </c>
+      <c r="K49">
+        <v>-0.07137821869592428</v>
+      </c>
+      <c r="L49">
+        <v>-0.1544288296273572</v>
+      </c>
+      <c r="M49">
+        <v>-0.08001224531068163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05451174868200791</v>
+        <v>-0.04211372765032116</v>
       </c>
       <c r="C50">
-        <v>0.029382188875729</v>
+        <v>-0.04244873395590099</v>
       </c>
       <c r="D50">
-        <v>-0.001574516546519337</v>
+        <v>-0.004496143080391236</v>
       </c>
       <c r="E50">
-        <v>-0.01283855538727108</v>
+        <v>0.01231671910240714</v>
       </c>
       <c r="F50">
-        <v>-0.004231617442584807</v>
+        <v>0.03920860946581187</v>
       </c>
       <c r="G50">
-        <v>-0.06502680628627992</v>
+        <v>0.03892991519075627</v>
       </c>
       <c r="H50">
-        <v>0.03583342196855331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03226080490633197</v>
+      </c>
+      <c r="I50">
+        <v>-0.01010052165778991</v>
+      </c>
+      <c r="J50">
+        <v>-0.04065784409209149</v>
+      </c>
+      <c r="K50">
+        <v>0.03599922747144364</v>
+      </c>
+      <c r="L50">
+        <v>0.02149711634076794</v>
+      </c>
+      <c r="M50">
+        <v>0.02509116504605785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02810057179391892</v>
+        <v>-0.02968593061688193</v>
       </c>
       <c r="C51">
-        <v>0.01330031650109376</v>
+        <v>-0.005695382902531601</v>
       </c>
       <c r="D51">
-        <v>0.0009459115091464011</v>
+        <v>0.001267980441555392</v>
       </c>
       <c r="E51">
-        <v>-0.01642972838410942</v>
+        <v>-0.01977746564158318</v>
       </c>
       <c r="F51">
-        <v>0.009822866079734451</v>
+        <v>-0.01561532733110894</v>
       </c>
       <c r="G51">
-        <v>0.02212688267757202</v>
+        <v>0.006591534418796491</v>
       </c>
       <c r="H51">
-        <v>-0.0150848487261689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.01983140352664981</v>
+      </c>
+      <c r="I51">
+        <v>0.01695053978655995</v>
+      </c>
+      <c r="J51">
+        <v>0.02155162648962971</v>
+      </c>
+      <c r="K51">
+        <v>-0.0619714186586139</v>
+      </c>
+      <c r="L51">
+        <v>-0.05985538744245723</v>
+      </c>
+      <c r="M51">
+        <v>0.01855236829903869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01591188285850397</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.005054917321812759</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01423910805155851</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0026077038481569</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.001485134944722795</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002668433373127515</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01161598588817115</v>
+      </c>
+      <c r="I52">
+        <v>0.003212307327887055</v>
+      </c>
+      <c r="J52">
+        <v>-0.0004531810139516185</v>
+      </c>
+      <c r="K52">
+        <v>-0.01475864182794858</v>
+      </c>
+      <c r="L52">
+        <v>0.005145072271287405</v>
+      </c>
+      <c r="M52">
+        <v>0.03033436205231528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1671087861284725</v>
+        <v>-0.1529223040273324</v>
       </c>
       <c r="C53">
-        <v>0.01953605164327235</v>
+        <v>-0.0477592498557829</v>
       </c>
       <c r="D53">
-        <v>-0.01970444315817853</v>
+        <v>0.01529821114708882</v>
       </c>
       <c r="E53">
-        <v>0.08064453411698069</v>
+        <v>0.0114254492923837</v>
       </c>
       <c r="F53">
-        <v>0.173014511108173</v>
+        <v>-0.06729623694480438</v>
       </c>
       <c r="G53">
-        <v>-0.1981404280971693</v>
+        <v>0.2120956297084051</v>
       </c>
       <c r="H53">
-        <v>0.02075937354822339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.03159632125806231</v>
+      </c>
+      <c r="I53">
+        <v>-0.1289282390922842</v>
+      </c>
+      <c r="J53">
+        <v>-0.01053994228039972</v>
+      </c>
+      <c r="K53">
+        <v>0.09100732275481468</v>
+      </c>
+      <c r="L53">
+        <v>-0.05960523132055413</v>
+      </c>
+      <c r="M53">
+        <v>0.09732157014194243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04421293886576686</v>
+        <v>-0.05653921282494476</v>
       </c>
       <c r="C54">
-        <v>0.02999949604323602</v>
+        <v>-0.03315554710445732</v>
       </c>
       <c r="D54">
-        <v>-0.02863281372001495</v>
+        <v>-0.01920655747516496</v>
       </c>
       <c r="E54">
-        <v>-0.03287174401970339</v>
+        <v>-0.02690752282284847</v>
       </c>
       <c r="F54">
-        <v>0.009487485877456885</v>
+        <v>0.1096701275288491</v>
       </c>
       <c r="G54">
-        <v>-0.02443232405624746</v>
+        <v>-0.01640742064832411</v>
       </c>
       <c r="H54">
-        <v>0.005844538897700709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05432076923005745</v>
+      </c>
+      <c r="I54">
+        <v>-0.03506180028842685</v>
+      </c>
+      <c r="J54">
+        <v>-0.062159743883547</v>
+      </c>
+      <c r="K54">
+        <v>0.0424455912849838</v>
+      </c>
+      <c r="L54">
+        <v>0.1045280422057188</v>
+      </c>
+      <c r="M54">
+        <v>-0.01850713094335883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.08930135173150158</v>
+        <v>-0.08534889440212882</v>
       </c>
       <c r="C55">
-        <v>0.005000134684452379</v>
+        <v>-0.03726126774724551</v>
       </c>
       <c r="D55">
-        <v>-0.01005189239677578</v>
+        <v>0.0262376108468896</v>
       </c>
       <c r="E55">
-        <v>0.01755468673267025</v>
+        <v>-0.0007956847318440562</v>
       </c>
       <c r="F55">
-        <v>0.1437151889400409</v>
+        <v>0.003865863784129798</v>
       </c>
       <c r="G55">
-        <v>-0.1773905562990158</v>
+        <v>0.1437819086664773</v>
       </c>
       <c r="H55">
-        <v>0.03988118183198761</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.03904641347951685</v>
+      </c>
+      <c r="I55">
+        <v>-0.08423959311785181</v>
+      </c>
+      <c r="J55">
+        <v>-0.007617874423845419</v>
+      </c>
+      <c r="K55">
+        <v>0.06355616610372393</v>
+      </c>
+      <c r="L55">
+        <v>-0.04987962274847296</v>
+      </c>
+      <c r="M55">
+        <v>0.02239998175312386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1660971476415143</v>
+        <v>-0.1491201058236044</v>
       </c>
       <c r="C56">
-        <v>0.02064523932119277</v>
+        <v>-0.06988600775929114</v>
       </c>
       <c r="D56">
-        <v>-0.04081587550901361</v>
+        <v>0.03309512369724034</v>
       </c>
       <c r="E56">
-        <v>0.076102298616364</v>
+        <v>-0.007997798809750881</v>
       </c>
       <c r="F56">
-        <v>0.1396155306644629</v>
+        <v>-0.03661744269021509</v>
       </c>
       <c r="G56">
-        <v>-0.1917576673960254</v>
+        <v>0.2087302232171671</v>
       </c>
       <c r="H56">
-        <v>0.02455414931381404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.01180175961012214</v>
+      </c>
+      <c r="I56">
+        <v>-0.1344080558818297</v>
+      </c>
+      <c r="J56">
+        <v>0.01628888435915926</v>
+      </c>
+      <c r="K56">
+        <v>0.09877662986267664</v>
+      </c>
+      <c r="L56">
+        <v>-0.04656642742805021</v>
+      </c>
+      <c r="M56">
+        <v>0.04799309120518609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03934996397053118</v>
+        <v>-0.0338923601031156</v>
       </c>
       <c r="C58">
-        <v>0.02938515378088389</v>
+        <v>-0.03542728402647516</v>
       </c>
       <c r="D58">
-        <v>-0.009299258422514417</v>
+        <v>-0.08172930687712353</v>
       </c>
       <c r="E58">
-        <v>-0.3146006622070978</v>
+        <v>-0.01976946100256624</v>
       </c>
       <c r="F58">
-        <v>-0.2238218776960111</v>
+        <v>0.04029914567240064</v>
       </c>
       <c r="G58">
-        <v>-0.01251903761103314</v>
+        <v>-0.05508919974782823</v>
       </c>
       <c r="H58">
-        <v>0.1876220551926168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.03860846556312288</v>
+      </c>
+      <c r="I58">
+        <v>0.2022944506213235</v>
+      </c>
+      <c r="J58">
+        <v>-0.2062020869605327</v>
+      </c>
+      <c r="K58">
+        <v>-0.3179954985188642</v>
+      </c>
+      <c r="L58">
+        <v>-0.0009229687851501312</v>
+      </c>
+      <c r="M58">
+        <v>-0.1396445997261724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2503480367823061</v>
+        <v>-0.2267890313947213</v>
       </c>
       <c r="C59">
-        <v>-0.3977204903187357</v>
+        <v>0.2986385615368066</v>
       </c>
       <c r="D59">
-        <v>-0.00689698870928226</v>
+        <v>0.04318351028947499</v>
       </c>
       <c r="E59">
-        <v>-0.0151018562090684</v>
+        <v>-0.006512149147142034</v>
       </c>
       <c r="F59">
-        <v>0.05776460330731996</v>
+        <v>0.0312168877365473</v>
       </c>
       <c r="G59">
-        <v>-0.01527789126320508</v>
+        <v>0.05828737429751495</v>
       </c>
       <c r="H59">
-        <v>-0.07875024539145539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.01874483012113095</v>
+      </c>
+      <c r="I59">
+        <v>-0.1103013479261127</v>
+      </c>
+      <c r="J59">
+        <v>0.07164743751492418</v>
+      </c>
+      <c r="K59">
+        <v>-0.0528391111581257</v>
+      </c>
+      <c r="L59">
+        <v>-0.02473603181278328</v>
+      </c>
+      <c r="M59">
+        <v>0.02699628627788543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2534729686535073</v>
+        <v>-0.245259923381095</v>
       </c>
       <c r="C60">
-        <v>0.07779836681510377</v>
+        <v>-0.1195643360083595</v>
       </c>
       <c r="D60">
-        <v>-0.09915199792181205</v>
+        <v>0.06542782141549236</v>
       </c>
       <c r="E60">
-        <v>-0.02327460624087687</v>
+        <v>-0.04706988656028287</v>
       </c>
       <c r="F60">
-        <v>-0.03905521149730213</v>
+        <v>-0.09228518413868948</v>
       </c>
       <c r="G60">
-        <v>0.06138418396588223</v>
+        <v>-0.04970384049137151</v>
       </c>
       <c r="H60">
-        <v>0.04681697325472189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1018823441649357</v>
+      </c>
+      <c r="I60">
+        <v>-0.004664743432920534</v>
+      </c>
+      <c r="J60">
+        <v>-0.05828050943650822</v>
+      </c>
+      <c r="K60">
+        <v>0.02008900620616605</v>
+      </c>
+      <c r="L60">
+        <v>-0.2020536845059334</v>
+      </c>
+      <c r="M60">
+        <v>0.04934040890616347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08432077094708887</v>
+        <v>-0.09157577308571063</v>
       </c>
       <c r="C61">
-        <v>0.06408750192225426</v>
+        <v>-0.06412920864664713</v>
       </c>
       <c r="D61">
-        <v>-0.02089299527672963</v>
+        <v>0.04504943342566423</v>
       </c>
       <c r="E61">
-        <v>-0.005877248478620667</v>
+        <v>-0.01496104246799455</v>
       </c>
       <c r="F61">
-        <v>0.01467726876882924</v>
+        <v>0.1159402919653243</v>
       </c>
       <c r="G61">
-        <v>-0.02071313329328452</v>
+        <v>0.08839434109556349</v>
       </c>
       <c r="H61">
-        <v>-0.06040533644287161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.01959585722912584</v>
+      </c>
+      <c r="I61">
+        <v>0.06298919725793542</v>
+      </c>
+      <c r="J61">
+        <v>0.02879614574621862</v>
+      </c>
+      <c r="K61">
+        <v>-0.0698613835734485</v>
+      </c>
+      <c r="L61">
+        <v>0.04754429605787526</v>
+      </c>
+      <c r="M61">
+        <v>0.01704121833326456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1635850415511665</v>
+        <v>-0.1400575189179026</v>
       </c>
       <c r="C62">
-        <v>0.06118899446567875</v>
+        <v>-0.07521874517685477</v>
       </c>
       <c r="D62">
-        <v>-0.005015187826257932</v>
+        <v>0.03289657414902256</v>
       </c>
       <c r="E62">
-        <v>0.1186204688645966</v>
+        <v>0.03851890448367248</v>
       </c>
       <c r="F62">
-        <v>0.1976351190632267</v>
+        <v>-0.03233475021394652</v>
       </c>
       <c r="G62">
-        <v>-0.1400409377158934</v>
+        <v>0.1571497646410671</v>
       </c>
       <c r="H62">
-        <v>-0.01814801362605896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.0528197548511087</v>
+      </c>
+      <c r="I62">
+        <v>-0.1323147606188126</v>
+      </c>
+      <c r="J62">
+        <v>0.01898241736968273</v>
+      </c>
+      <c r="K62">
+        <v>0.163930608644343</v>
+      </c>
+      <c r="L62">
+        <v>-0.0288706193347716</v>
+      </c>
+      <c r="M62">
+        <v>-0.02180398343171639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04191836800546463</v>
+        <v>-0.04470667389113712</v>
       </c>
       <c r="C63">
-        <v>0.04240754443320888</v>
+        <v>-0.02602680075542229</v>
       </c>
       <c r="D63">
-        <v>-0.008580870683925851</v>
+        <v>0.005988063233321491</v>
       </c>
       <c r="E63">
-        <v>-0.001542555361303265</v>
+        <v>0.01392828177277521</v>
       </c>
       <c r="F63">
-        <v>0.01653308765481517</v>
+        <v>0.0591910914919679</v>
       </c>
       <c r="G63">
-        <v>-0.0224079805041657</v>
+        <v>0.008719443373704417</v>
       </c>
       <c r="H63">
-        <v>0.05055615719919537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.02497312871705113</v>
+      </c>
+      <c r="I63">
+        <v>0.02778997200888343</v>
+      </c>
+      <c r="J63">
+        <v>-0.03804314217256766</v>
+      </c>
+      <c r="K63">
+        <v>0.009210351710312509</v>
+      </c>
+      <c r="L63">
+        <v>0.01692348933437212</v>
+      </c>
+      <c r="M63">
+        <v>-0.01370849129221548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.102088236394796</v>
+        <v>-0.09907264890420668</v>
       </c>
       <c r="C64">
-        <v>0.02584198977271286</v>
+        <v>-0.04800748234309848</v>
       </c>
       <c r="D64">
-        <v>-0.03360134608304635</v>
+        <v>-0.004007051266598498</v>
       </c>
       <c r="E64">
-        <v>-0.03743847416547161</v>
+        <v>-0.03791456813998586</v>
       </c>
       <c r="F64">
-        <v>-0.009332519088211866</v>
+        <v>0.06786414574334439</v>
       </c>
       <c r="G64">
-        <v>0.01104369501007055</v>
+        <v>0.01778283137864163</v>
       </c>
       <c r="H64">
-        <v>-0.03880643149062645</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.004288125895674483</v>
+      </c>
+      <c r="I64">
+        <v>0.07263583927284942</v>
+      </c>
+      <c r="J64">
+        <v>-0.02425317994677955</v>
+      </c>
+      <c r="K64">
+        <v>-0.01923274275448227</v>
+      </c>
+      <c r="L64">
+        <v>0.04058558929938084</v>
+      </c>
+      <c r="M64">
+        <v>0.01544443936218136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1290049046997306</v>
+        <v>-0.1256074926916348</v>
       </c>
       <c r="C65">
-        <v>0.04993764083492133</v>
+        <v>-0.04906202189950092</v>
       </c>
       <c r="D65">
-        <v>-0.04752133789599323</v>
+        <v>0.001696398867852671</v>
       </c>
       <c r="E65">
-        <v>-0.1316871206418941</v>
+        <v>0.01241889866578732</v>
       </c>
       <c r="F65">
-        <v>-0.1101172339335003</v>
+        <v>0.04518203649720211</v>
       </c>
       <c r="G65">
-        <v>0.08767556326886526</v>
+        <v>-0.2197345371871862</v>
       </c>
       <c r="H65">
-        <v>0.6759575268305777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.1320071834355186</v>
+      </c>
+      <c r="I65">
+        <v>-0.01041337357344344</v>
+      </c>
+      <c r="J65">
+        <v>-0.5913277339472094</v>
+      </c>
+      <c r="K65">
+        <v>0.2519554454243384</v>
+      </c>
+      <c r="L65">
+        <v>-0.2114533560700332</v>
+      </c>
+      <c r="M65">
+        <v>0.1139805154385142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1519332104385371</v>
+        <v>-0.1256373812534692</v>
       </c>
       <c r="C66">
-        <v>0.1394506713496773</v>
+        <v>-0.1345915739269337</v>
       </c>
       <c r="D66">
-        <v>-0.04230420557045085</v>
+        <v>0.1076901594726667</v>
       </c>
       <c r="E66">
-        <v>0.0004825759374232314</v>
+        <v>0.02847501662547352</v>
       </c>
       <c r="F66">
-        <v>0.1027850600700741</v>
+        <v>0.1680490546751612</v>
       </c>
       <c r="G66">
-        <v>0.03397153559031087</v>
+        <v>0.1059118889868788</v>
       </c>
       <c r="H66">
-        <v>-0.2404719877074084</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.001418107942334627</v>
+      </c>
+      <c r="I66">
+        <v>0.1578794328137823</v>
+      </c>
+      <c r="J66">
+        <v>0.1087379292784423</v>
+      </c>
+      <c r="K66">
+        <v>-0.178718034957478</v>
+      </c>
+      <c r="L66">
+        <v>0.03041212836152967</v>
+      </c>
+      <c r="M66">
+        <v>0.08943319364639331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07739282958430667</v>
+        <v>-0.07899015248307024</v>
       </c>
       <c r="C67">
-        <v>0.05179767454100143</v>
+        <v>-0.06202821045852106</v>
       </c>
       <c r="D67">
-        <v>-0.007736160653995613</v>
+        <v>-0.01515994507889382</v>
       </c>
       <c r="E67">
-        <v>-0.007054047013366554</v>
+        <v>-0.01848840259470628</v>
       </c>
       <c r="F67">
-        <v>0.00210751669277601</v>
+        <v>-0.03654820231777206</v>
       </c>
       <c r="G67">
-        <v>0.005960172377406894</v>
+        <v>0.08726211612498554</v>
       </c>
       <c r="H67">
-        <v>-0.06295818240203252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.07832562581857408</v>
+      </c>
+      <c r="I67">
+        <v>0.0005718828580798097</v>
+      </c>
+      <c r="J67">
+        <v>0.09330446933023559</v>
+      </c>
+      <c r="K67">
+        <v>0.06195149644619721</v>
+      </c>
+      <c r="L67">
+        <v>0.03327122470710447</v>
+      </c>
+      <c r="M67">
+        <v>0.1073378275621092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1044774192167865</v>
+        <v>-0.1224446285552898</v>
       </c>
       <c r="C68">
-        <v>-0.2738651021107185</v>
+        <v>0.2755936151849492</v>
       </c>
       <c r="D68">
-        <v>0.02168151369914897</v>
+        <v>0.001595896650882292</v>
       </c>
       <c r="E68">
-        <v>0.0007253242898107481</v>
+        <v>-0.0001375623232510455</v>
       </c>
       <c r="F68">
-        <v>-0.006912440029334704</v>
+        <v>0.0232753116945063</v>
       </c>
       <c r="G68">
-        <v>-0.04915741568966939</v>
+        <v>0.02979761634179304</v>
       </c>
       <c r="H68">
-        <v>0.01858962200491405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.009443601999306273</v>
+      </c>
+      <c r="I68">
+        <v>0.01533388746638782</v>
+      </c>
+      <c r="J68">
+        <v>-0.06708618027807195</v>
+      </c>
+      <c r="K68">
+        <v>0.01345136620690639</v>
+      </c>
+      <c r="L68">
+        <v>0.005258099282888495</v>
+      </c>
+      <c r="M68">
+        <v>0.04355771319792428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03879433014404724</v>
+        <v>-0.04344014479319712</v>
       </c>
       <c r="C69">
-        <v>0.03095327168575562</v>
+        <v>-0.02209003409666689</v>
       </c>
       <c r="D69">
-        <v>-0.008489221068899724</v>
+        <v>-0.008616717273123149</v>
       </c>
       <c r="E69">
-        <v>-0.01416979633908382</v>
+        <v>-0.0002625238497516354</v>
       </c>
       <c r="F69">
-        <v>0.03804404453372968</v>
+        <v>0.0150771525657385</v>
       </c>
       <c r="G69">
-        <v>-0.01900496927931308</v>
+        <v>0.03910818012796651</v>
       </c>
       <c r="H69">
-        <v>0.01235143289677593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0005795865169962176</v>
+      </c>
+      <c r="I69">
+        <v>0.01449486726727526</v>
+      </c>
+      <c r="J69">
+        <v>0.01142839850289725</v>
+      </c>
+      <c r="K69">
+        <v>0.02598487235133579</v>
+      </c>
+      <c r="L69">
+        <v>-0.004624655283930359</v>
+      </c>
+      <c r="M69">
+        <v>-0.05964839734791465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.0483060320080906</v>
+        <v>-0.05106760849937048</v>
       </c>
       <c r="C70">
-        <v>0.0005711376408395358</v>
+        <v>-0.03389663789460456</v>
       </c>
       <c r="D70">
-        <v>-0.04007044681103288</v>
+        <v>0.02196369051158891</v>
       </c>
       <c r="E70">
-        <v>0.02132507219880992</v>
+        <v>-0.01965555203616829</v>
       </c>
       <c r="F70">
-        <v>-0.09696792443495005</v>
+        <v>-0.001404478147446898</v>
       </c>
       <c r="G70">
-        <v>0.05416005661564129</v>
+        <v>-0.06905545182231156</v>
       </c>
       <c r="H70">
-        <v>-0.02490509862065092</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.01742272011548031</v>
+      </c>
+      <c r="I70">
+        <v>-0.0269930589604511</v>
+      </c>
+      <c r="J70">
+        <v>-0.03498481093854735</v>
+      </c>
+      <c r="K70">
+        <v>0.1489208690025523</v>
+      </c>
+      <c r="L70">
+        <v>0.2685562203125717</v>
+      </c>
+      <c r="M70">
+        <v>-0.1202446285482438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1081747127333848</v>
+        <v>-0.1365713781023845</v>
       </c>
       <c r="C71">
-        <v>-0.2827847959607507</v>
+        <v>0.2816608232222644</v>
       </c>
       <c r="D71">
-        <v>-0.01199790308620649</v>
+        <v>0.008448734203765271</v>
       </c>
       <c r="E71">
-        <v>0.01122657231394889</v>
+        <v>-0.01988003513490734</v>
       </c>
       <c r="F71">
-        <v>-0.02745693461342221</v>
+        <v>0.02738530993357637</v>
       </c>
       <c r="G71">
-        <v>-0.0341663428550122</v>
+        <v>0.03281600133387905</v>
       </c>
       <c r="H71">
-        <v>0.00140899352701458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.005630497263353663</v>
+      </c>
+      <c r="I71">
+        <v>0.03689584183541517</v>
+      </c>
+      <c r="J71">
+        <v>-0.0312039410518469</v>
+      </c>
+      <c r="K71">
+        <v>0.002758307598370902</v>
+      </c>
+      <c r="L71">
+        <v>-0.0007938291943573178</v>
+      </c>
+      <c r="M71">
+        <v>0.02813812923327415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1862223351740223</v>
+        <v>-0.1430817552710427</v>
       </c>
       <c r="C72">
-        <v>0.05495969455023021</v>
+        <v>-0.03392111797313231</v>
       </c>
       <c r="D72">
-        <v>0.2363142688419004</v>
+        <v>-0.004206814677192129</v>
       </c>
       <c r="E72">
-        <v>0.0111153054989996</v>
+        <v>0.187414070479412</v>
       </c>
       <c r="F72">
-        <v>0.09731679446599936</v>
+        <v>0.05761484879321178</v>
       </c>
       <c r="G72">
-        <v>0.07937676073457056</v>
+        <v>0.003487323046432868</v>
       </c>
       <c r="H72">
-        <v>0.101450011529508</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.06721067697913166</v>
+      </c>
+      <c r="I72">
+        <v>-0.05938836520092933</v>
+      </c>
+      <c r="J72">
+        <v>-0.05265560305715541</v>
+      </c>
+      <c r="K72">
+        <v>0.0844133545881442</v>
+      </c>
+      <c r="L72">
+        <v>-0.1016121525708014</v>
+      </c>
+      <c r="M72">
+        <v>0.01511086045303924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2716424679166364</v>
+        <v>-0.2435172021827939</v>
       </c>
       <c r="C73">
-        <v>0.1874474795089716</v>
+        <v>-0.1547818090779393</v>
       </c>
       <c r="D73">
-        <v>-0.135983698629917</v>
+        <v>0.1555929248465981</v>
       </c>
       <c r="E73">
-        <v>0.04867010515937827</v>
+        <v>-0.08978124205921147</v>
       </c>
       <c r="F73">
-        <v>-0.165663984041266</v>
+        <v>-0.4163948661952635</v>
       </c>
       <c r="G73">
-        <v>0.0969216829741978</v>
+        <v>-0.1133280736194482</v>
       </c>
       <c r="H73">
-        <v>0.1358589239464141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2068156562151318</v>
+      </c>
+      <c r="I73">
+        <v>0.3275307121794989</v>
+      </c>
+      <c r="J73">
+        <v>0.1485561047523843</v>
+      </c>
+      <c r="K73">
+        <v>-0.1618273624979417</v>
+      </c>
+      <c r="L73">
+        <v>-0.2974722639651624</v>
+      </c>
+      <c r="M73">
+        <v>0.1411124420304345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09467472945128032</v>
+        <v>-0.09214046703553723</v>
       </c>
       <c r="C74">
-        <v>0.04113408405928023</v>
+        <v>-0.07100681146741432</v>
       </c>
       <c r="D74">
-        <v>-0.007895101584325664</v>
+        <v>0.01033749131078809</v>
       </c>
       <c r="E74">
-        <v>0.03773779268380066</v>
+        <v>0.01589094675373016</v>
       </c>
       <c r="F74">
-        <v>0.06576873700744905</v>
+        <v>-0.04313216179272955</v>
       </c>
       <c r="G74">
-        <v>-0.1546132970904797</v>
+        <v>0.152786355461571</v>
       </c>
       <c r="H74">
-        <v>0.05773179362662835</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0137820176458397</v>
+      </c>
+      <c r="I74">
+        <v>-0.001589245759323717</v>
+      </c>
+      <c r="J74">
+        <v>0.01176153248059759</v>
+      </c>
+      <c r="K74">
+        <v>0.05321881530144319</v>
+      </c>
+      <c r="L74">
+        <v>-0.0399419696252647</v>
+      </c>
+      <c r="M74">
+        <v>0.02220702797592742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09532133502473031</v>
+        <v>-0.09392405545003482</v>
       </c>
       <c r="C75">
-        <v>0.02339630495558036</v>
+        <v>-0.04882916351309745</v>
       </c>
       <c r="D75">
-        <v>-0.01224122140705181</v>
+        <v>0.003737731854966682</v>
       </c>
       <c r="E75">
-        <v>0.03185974758334417</v>
+        <v>0.01246713412431297</v>
       </c>
       <c r="F75">
-        <v>0.07324385471468971</v>
+        <v>-0.02425338413990733</v>
       </c>
       <c r="G75">
-        <v>-0.08903757431742221</v>
+        <v>0.09703507504121629</v>
       </c>
       <c r="H75">
-        <v>0.005985638022051131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.01660607137736735</v>
+      </c>
+      <c r="I75">
+        <v>-0.09150295334925591</v>
+      </c>
+      <c r="J75">
+        <v>0.009026696637330946</v>
+      </c>
+      <c r="K75">
+        <v>0.03876574406838048</v>
+      </c>
+      <c r="L75">
+        <v>-0.02766535059416124</v>
+      </c>
+      <c r="M75">
+        <v>-0.06733571065030497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1293328190110188</v>
+        <v>-0.09157492706655151</v>
       </c>
       <c r="C76">
-        <v>0.03611237478789318</v>
+        <v>-0.0652938174142864</v>
       </c>
       <c r="D76">
-        <v>-0.01041914732560662</v>
+        <v>0.003484297600563666</v>
       </c>
       <c r="E76">
-        <v>0.01543230293546419</v>
+        <v>-0.005837880743391301</v>
       </c>
       <c r="F76">
-        <v>0.1423898480168297</v>
+        <v>-0.04759086019029668</v>
       </c>
       <c r="G76">
-        <v>-0.1901231962675828</v>
+        <v>0.1925394133424383</v>
       </c>
       <c r="H76">
-        <v>0.0442917505938207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04029081102758651</v>
+      </c>
+      <c r="I76">
+        <v>-0.1277431517603736</v>
+      </c>
+      <c r="J76">
+        <v>-0.001880224192465003</v>
+      </c>
+      <c r="K76">
+        <v>0.06015167583985395</v>
+      </c>
+      <c r="L76">
+        <v>-0.03502945633993042</v>
+      </c>
+      <c r="M76">
+        <v>0.08779147802042582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08732853405241016</v>
+        <v>-0.07445091902228634</v>
       </c>
       <c r="C77">
-        <v>0.003390912278076553</v>
+        <v>-0.01968828966311372</v>
       </c>
       <c r="D77">
-        <v>-0.02183477076256953</v>
+        <v>0.008490202697123068</v>
       </c>
       <c r="E77">
-        <v>-0.3798922971489223</v>
+        <v>-0.05713689831142772</v>
       </c>
       <c r="F77">
-        <v>0.5143182335465923</v>
+        <v>0.4313810428638425</v>
       </c>
       <c r="G77">
-        <v>0.5809418943904602</v>
+        <v>-0.1925327958489984</v>
       </c>
       <c r="H77">
-        <v>-0.1101212973868739</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.6605132933553055</v>
+      </c>
+      <c r="I77">
+        <v>-0.1784311217183103</v>
+      </c>
+      <c r="J77">
+        <v>0.3384211075621283</v>
+      </c>
+      <c r="K77">
+        <v>0.1209906758270182</v>
+      </c>
+      <c r="L77">
+        <v>-0.04763062075226292</v>
+      </c>
+      <c r="M77">
+        <v>0.01422812589131321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1365769401216428</v>
+        <v>-0.1638140701539673</v>
       </c>
       <c r="C78">
-        <v>0.07008294784188723</v>
+        <v>-0.123721816069858</v>
       </c>
       <c r="D78">
-        <v>-0.02846637165552454</v>
+        <v>-0.1749347417792541</v>
       </c>
       <c r="E78">
-        <v>-0.1674036169561007</v>
+        <v>-0.1071214763892268</v>
       </c>
       <c r="F78">
-        <v>-0.05840925229398777</v>
+        <v>0.1225217594077257</v>
       </c>
       <c r="G78">
-        <v>-0.01274906258415722</v>
+        <v>-0.2773694969424096</v>
       </c>
       <c r="H78">
-        <v>-0.1005100639036118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.2379887386280057</v>
+      </c>
+      <c r="I78">
+        <v>-0.5716131687894942</v>
+      </c>
+      <c r="J78">
+        <v>-0.01154398141236103</v>
+      </c>
+      <c r="K78">
+        <v>-0.5105030517503168</v>
+      </c>
+      <c r="L78">
+        <v>-0.1837220895161972</v>
+      </c>
+      <c r="M78">
+        <v>0.08067898103134906</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1400782137166844</v>
+        <v>-0.1338330694693935</v>
       </c>
       <c r="C79">
-        <v>0.05479219549937565</v>
+        <v>-0.07412597052861787</v>
       </c>
       <c r="D79">
-        <v>-0.02477828182497801</v>
+        <v>0.004402064759456204</v>
       </c>
       <c r="E79">
-        <v>0.0468629445712927</v>
+        <v>-0.000805942364202321</v>
       </c>
       <c r="F79">
-        <v>0.1135472884526348</v>
+        <v>-0.001199119591608885</v>
       </c>
       <c r="G79">
-        <v>-0.1242846159158622</v>
+        <v>0.1534653501307155</v>
       </c>
       <c r="H79">
-        <v>0.004364379139525239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.02399399379348697</v>
+      </c>
+      <c r="I79">
+        <v>-0.08052052900043974</v>
+      </c>
+      <c r="J79">
+        <v>0.001461398911722172</v>
+      </c>
+      <c r="K79">
+        <v>0.1082763447605696</v>
+      </c>
+      <c r="L79">
+        <v>-0.0391357898749744</v>
+      </c>
+      <c r="M79">
+        <v>-0.01618877371701499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02462861998827413</v>
+        <v>-0.05426362270016991</v>
       </c>
       <c r="C80">
-        <v>0.0003021594339968519</v>
+        <v>-0.02175088845654266</v>
       </c>
       <c r="D80">
-        <v>0.0002929650721100927</v>
+        <v>0.06308027568458915</v>
       </c>
       <c r="E80">
-        <v>0.03343854470933921</v>
+        <v>-0.007272936041428155</v>
       </c>
       <c r="F80">
-        <v>0.004013880458581439</v>
+        <v>0.005746424160510613</v>
       </c>
       <c r="G80">
-        <v>0.01083467224595399</v>
+        <v>-0.01956637429297335</v>
       </c>
       <c r="H80">
-        <v>0.07416817934228523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.08203417714083827</v>
+      </c>
+      <c r="I80">
+        <v>0.07703470900199229</v>
+      </c>
+      <c r="J80">
+        <v>-0.1000675510160184</v>
+      </c>
+      <c r="K80">
+        <v>-0.03306122127407212</v>
+      </c>
+      <c r="L80">
+        <v>0.06744855951806034</v>
+      </c>
+      <c r="M80">
+        <v>0.06088332170007931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1138132219074995</v>
+        <v>-0.1220633846731802</v>
       </c>
       <c r="C81">
-        <v>0.05629731082055505</v>
+        <v>-0.05326760349894456</v>
       </c>
       <c r="D81">
-        <v>-0.03205576450206019</v>
+        <v>-0.001923225710143114</v>
       </c>
       <c r="E81">
-        <v>0.03984786496118269</v>
+        <v>-0.002926784859340548</v>
       </c>
       <c r="F81">
-        <v>0.06607514948383279</v>
+        <v>0.005341685575124244</v>
       </c>
       <c r="G81">
-        <v>-0.08872754041665062</v>
+        <v>0.139630730970115</v>
       </c>
       <c r="H81">
-        <v>0.008896814719339122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.05049058969786134</v>
+      </c>
+      <c r="I81">
+        <v>-0.04871753260935407</v>
+      </c>
+      <c r="J81">
+        <v>0.03155031728687229</v>
+      </c>
+      <c r="K81">
+        <v>0.05465755636034726</v>
+      </c>
+      <c r="L81">
+        <v>-0.03070910596078091</v>
+      </c>
+      <c r="M81">
+        <v>-0.09580777799929618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1066854780532462</v>
+        <v>-0.1177367421336762</v>
       </c>
       <c r="C82">
-        <v>0.0315166384256545</v>
+        <v>-0.05175199603665779</v>
       </c>
       <c r="D82">
-        <v>-0.05267196938492533</v>
+        <v>0.02795429422745461</v>
       </c>
       <c r="E82">
-        <v>0.09126657979644827</v>
+        <v>0.006442031176663574</v>
       </c>
       <c r="F82">
-        <v>0.1742867591286157</v>
+        <v>-0.03938312069291646</v>
       </c>
       <c r="G82">
-        <v>-0.2002179779846567</v>
+        <v>0.2286107305088503</v>
       </c>
       <c r="H82">
-        <v>-0.01270741819164275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.0554793197421978</v>
+      </c>
+      <c r="I82">
+        <v>-0.07815568031657529</v>
+      </c>
+      <c r="J82">
+        <v>0.06259558677391057</v>
+      </c>
+      <c r="K82">
+        <v>0.09109546791910754</v>
+      </c>
+      <c r="L82">
+        <v>0.04961380017528529</v>
+      </c>
+      <c r="M82">
+        <v>-0.03094753221800933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05539380325932627</v>
+        <v>-0.07470757217197613</v>
       </c>
       <c r="C83">
-        <v>0.04473736686694032</v>
+        <v>-0.06612127896148184</v>
       </c>
       <c r="D83">
-        <v>-0.03481632011489862</v>
+        <v>0.01559530897729168</v>
       </c>
       <c r="E83">
-        <v>0.01877674134672127</v>
+        <v>-0.00744835333003814</v>
       </c>
       <c r="F83">
-        <v>-0.03931650674255962</v>
+        <v>0.001531173684669225</v>
       </c>
       <c r="G83">
-        <v>0.05781294716829541</v>
+        <v>0.03724245893486766</v>
       </c>
       <c r="H83">
-        <v>-0.07575696903714828</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02532827443624654</v>
+      </c>
+      <c r="I83">
+        <v>0.07621736177783101</v>
+      </c>
+      <c r="J83">
+        <v>-0.01191103777861222</v>
+      </c>
+      <c r="K83">
+        <v>-0.03628388052619948</v>
+      </c>
+      <c r="L83">
+        <v>0.1534697326301386</v>
+      </c>
+      <c r="M83">
+        <v>0.1017821283567056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04550790771387572</v>
+        <v>-0.04933574179975918</v>
       </c>
       <c r="C84">
-        <v>0.05192452864475402</v>
+        <v>0.02129937870291775</v>
       </c>
       <c r="D84">
-        <v>0.05794681076293613</v>
+        <v>0.006603054428856995</v>
       </c>
       <c r="E84">
-        <v>0.03522940814301904</v>
+        <v>0.020384932339717</v>
       </c>
       <c r="F84">
-        <v>-0.0729195538248002</v>
+        <v>0.00459405294566652</v>
       </c>
       <c r="G84">
-        <v>-0.09635944089579231</v>
+        <v>-0.19805132728728</v>
       </c>
       <c r="H84">
-        <v>-0.01719041046053296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2013206532239816</v>
+      </c>
+      <c r="I84">
+        <v>0.1039463983665465</v>
+      </c>
+      <c r="J84">
+        <v>0.1188276348058077</v>
+      </c>
+      <c r="K84">
+        <v>-0.00261917511093552</v>
+      </c>
+      <c r="L84">
+        <v>0.145211081491692</v>
+      </c>
+      <c r="M84">
+        <v>0.5944227044580634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08260845397611975</v>
+        <v>-0.1075021548061969</v>
       </c>
       <c r="C85">
-        <v>0.04824139493129247</v>
+        <v>-0.05199489634699402</v>
       </c>
       <c r="D85">
-        <v>-0.04881967042102945</v>
+        <v>0.01263088720663255</v>
       </c>
       <c r="E85">
-        <v>0.0222426835127185</v>
+        <v>-0.02771312944873276</v>
       </c>
       <c r="F85">
-        <v>0.1368126599080409</v>
+        <v>0.0001322135743804256</v>
       </c>
       <c r="G85">
-        <v>-0.1319076341711226</v>
+        <v>0.1628142888638213</v>
       </c>
       <c r="H85">
-        <v>0.04591676033039021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.03170190732592832</v>
+      </c>
+      <c r="I85">
+        <v>-0.08076193679133072</v>
+      </c>
+      <c r="J85">
+        <v>0.004508790063782436</v>
+      </c>
+      <c r="K85">
+        <v>0.10348296923891</v>
+      </c>
+      <c r="L85">
+        <v>-0.06588149926268573</v>
+      </c>
+      <c r="M85">
+        <v>-0.03608234491191221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.04018647347012209</v>
+        <v>-0.07528510391227151</v>
       </c>
       <c r="C86">
-        <v>0.03960058317328494</v>
+        <v>-0.02076501045086837</v>
       </c>
       <c r="D86">
-        <v>0.003419054866992238</v>
+        <v>-0.008481878086705617</v>
       </c>
       <c r="E86">
-        <v>-0.05036238437896066</v>
+        <v>-0.1017630134487724</v>
       </c>
       <c r="F86">
-        <v>0.002331184701615354</v>
+        <v>0.06296373726504804</v>
       </c>
       <c r="G86">
-        <v>0.06189809596562434</v>
+        <v>-0.3911357361694441</v>
       </c>
       <c r="H86">
-        <v>0.1349023476854524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.4682001878333579</v>
+      </c>
+      <c r="I86">
+        <v>0.06210381454774561</v>
+      </c>
+      <c r="J86">
+        <v>0.355632790872082</v>
+      </c>
+      <c r="K86">
+        <v>0.4425060940997558</v>
+      </c>
+      <c r="L86">
+        <v>-0.194067387470257</v>
+      </c>
+      <c r="M86">
+        <v>-0.0008810921553230981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08669753019866613</v>
+        <v>-0.1130629822137509</v>
       </c>
       <c r="C87">
-        <v>0.05609234596844472</v>
+        <v>-0.06662682141848689</v>
       </c>
       <c r="D87">
-        <v>-0.02122674604416259</v>
+        <v>-0.03309492650795404</v>
       </c>
       <c r="E87">
-        <v>-0.151348495273422</v>
+        <v>-0.0399635091879306</v>
       </c>
       <c r="F87">
-        <v>0.1011935736557922</v>
+        <v>0.1501411804682384</v>
       </c>
       <c r="G87">
-        <v>0.1121116566367861</v>
+        <v>-0.09291433879598987</v>
       </c>
       <c r="H87">
-        <v>-0.05257649599313179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.1486144198695303</v>
+      </c>
+      <c r="I87">
+        <v>0.03291701065679258</v>
+      </c>
+      <c r="J87">
+        <v>0.08756784902553058</v>
+      </c>
+      <c r="K87">
+        <v>0.05856803242376209</v>
+      </c>
+      <c r="L87">
+        <v>0.1201423695492025</v>
+      </c>
+      <c r="M87">
+        <v>-0.03612210386370793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04947804650095428</v>
+        <v>-0.0566389264494796</v>
       </c>
       <c r="C88">
-        <v>0.03732691876000373</v>
+        <v>-0.05264483015774497</v>
       </c>
       <c r="D88">
-        <v>-0.02495637177123708</v>
+        <v>0.02757378309782391</v>
       </c>
       <c r="E88">
-        <v>-0.007310681058689122</v>
+        <v>-0.01350546942738204</v>
       </c>
       <c r="F88">
-        <v>0.004873052810483181</v>
+        <v>0.02790301659286336</v>
       </c>
       <c r="G88">
-        <v>0.0166323216809054</v>
+        <v>0.03504441469702643</v>
       </c>
       <c r="H88">
-        <v>-0.02083297946323761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01761149972709564</v>
+      </c>
+      <c r="I88">
+        <v>0.04544738811209252</v>
+      </c>
+      <c r="J88">
+        <v>-0.00641250467592971</v>
+      </c>
+      <c r="K88">
+        <v>-0.01348206838186256</v>
+      </c>
+      <c r="L88">
+        <v>0.01636549914444852</v>
+      </c>
+      <c r="M88">
+        <v>-0.0174381954517657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1792613089103137</v>
+        <v>-0.2173199024560727</v>
       </c>
       <c r="C89">
-        <v>-0.3204406845901306</v>
+        <v>0.356558800264845</v>
       </c>
       <c r="D89">
-        <v>-0.05503064200171013</v>
+        <v>-0.04925886296120338</v>
       </c>
       <c r="E89">
-        <v>-0.07693082345658984</v>
+        <v>-0.0810043417052749</v>
       </c>
       <c r="F89">
-        <v>-0.05014084201422755</v>
+        <v>0.006818259988413608</v>
       </c>
       <c r="G89">
-        <v>-0.005787344851026477</v>
+        <v>0.008457568391863563</v>
       </c>
       <c r="H89">
-        <v>0.01230169119748841</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03722009230831015</v>
+      </c>
+      <c r="I89">
+        <v>0.03710922619173949</v>
+      </c>
+      <c r="J89">
+        <v>0.01239310813286766</v>
+      </c>
+      <c r="K89">
+        <v>-0.07116002139978442</v>
+      </c>
+      <c r="L89">
+        <v>0.006890957927377151</v>
+      </c>
+      <c r="M89">
+        <v>-0.1190036205335403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1275387609566417</v>
+        <v>-0.1496142889539245</v>
       </c>
       <c r="C90">
-        <v>-0.2811456524357399</v>
+        <v>0.2697352379823234</v>
       </c>
       <c r="D90">
-        <v>0.009643431957151203</v>
+        <v>0.008449361437656641</v>
       </c>
       <c r="E90">
-        <v>-0.04667805941296396</v>
+        <v>-0.02181504124938007</v>
       </c>
       <c r="F90">
-        <v>-0.002463119021981096</v>
+        <v>0.03215868743192386</v>
       </c>
       <c r="G90">
-        <v>0.04727156494451945</v>
+        <v>-0.0009127583588938211</v>
       </c>
       <c r="H90">
-        <v>-0.03769729002075339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.02044325945659054</v>
+      </c>
+      <c r="I90">
+        <v>0.05707351995714887</v>
+      </c>
+      <c r="J90">
+        <v>-0.006631627264510945</v>
+      </c>
+      <c r="K90">
+        <v>-0.03044954380963583</v>
+      </c>
+      <c r="L90">
+        <v>-0.004516978583383647</v>
+      </c>
+      <c r="M90">
+        <v>0.06069321098191872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08325553060840156</v>
+        <v>-0.07837927392880674</v>
       </c>
       <c r="C91">
-        <v>0.02423145437625291</v>
+        <v>-0.05004742775694982</v>
       </c>
       <c r="D91">
-        <v>-0.009226468595781353</v>
+        <v>-0.01157742738088029</v>
       </c>
       <c r="E91">
-        <v>-0.01309371049819309</v>
+        <v>-0.006634395624153894</v>
       </c>
       <c r="F91">
-        <v>0.04248226441970485</v>
+        <v>-0.020797540027846</v>
       </c>
       <c r="G91">
-        <v>-0.1037211542196445</v>
+        <v>0.08252273282884433</v>
       </c>
       <c r="H91">
-        <v>0.01133574735693829</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.02050268831002515</v>
+      </c>
+      <c r="I91">
+        <v>-0.05216660246230907</v>
+      </c>
+      <c r="J91">
+        <v>0.02806321288243784</v>
+      </c>
+      <c r="K91">
+        <v>0.01767464087594837</v>
+      </c>
+      <c r="L91">
+        <v>-0.03286212216185138</v>
+      </c>
+      <c r="M91">
+        <v>0.009019710145677155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.151616855037446</v>
+        <v>-0.1645808348876204</v>
       </c>
       <c r="C92">
-        <v>-0.3017841464058338</v>
+        <v>0.3025723685243169</v>
       </c>
       <c r="D92">
-        <v>-0.03088746753369067</v>
+        <v>-0.03433458004543359</v>
       </c>
       <c r="E92">
-        <v>-0.01355866418967151</v>
+        <v>-0.04503414465758574</v>
       </c>
       <c r="F92">
-        <v>-0.07539450958537411</v>
+        <v>0.02013309916834384</v>
       </c>
       <c r="G92">
-        <v>-0.04206563829615066</v>
+        <v>0.03671383116313606</v>
       </c>
       <c r="H92">
-        <v>0.003483242545513952</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.02009069695712281</v>
+      </c>
+      <c r="I92">
+        <v>0.007519569940127447</v>
+      </c>
+      <c r="J92">
+        <v>-0.009613568063085536</v>
+      </c>
+      <c r="K92">
+        <v>-0.04233009833031186</v>
+      </c>
+      <c r="L92">
+        <v>0.001759347586673101</v>
+      </c>
+      <c r="M92">
+        <v>-0.07990398558661989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1460951399571328</v>
+        <v>-0.1646382962508089</v>
       </c>
       <c r="C93">
-        <v>-0.2504527839181365</v>
+        <v>0.2860412666834927</v>
       </c>
       <c r="D93">
-        <v>-0.0109900474022217</v>
+        <v>0.0249511873410613</v>
       </c>
       <c r="E93">
-        <v>-0.01895279855473602</v>
+        <v>-0.008937942367086813</v>
       </c>
       <c r="F93">
-        <v>-0.03150946021240077</v>
+        <v>0.01231380769709717</v>
       </c>
       <c r="G93">
-        <v>0.02041929137896449</v>
+        <v>-0.009084709585508575</v>
       </c>
       <c r="H93">
-        <v>-0.01304800264371759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01975908559787798</v>
+      </c>
+      <c r="I93">
+        <v>0.03397135253564786</v>
+      </c>
+      <c r="J93">
+        <v>-0.01178511211454739</v>
+      </c>
+      <c r="K93">
+        <v>0.02051024412009465</v>
+      </c>
+      <c r="L93">
+        <v>0.0208648900867594</v>
+      </c>
+      <c r="M93">
+        <v>0.03833246239399496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08575155599707938</v>
+        <v>-0.1084479383738925</v>
       </c>
       <c r="C94">
-        <v>0.06366651100994984</v>
+        <v>-0.07542776126591098</v>
       </c>
       <c r="D94">
-        <v>-0.007566770841774461</v>
+        <v>-0.01838007732951121</v>
       </c>
       <c r="E94">
-        <v>0.009000656383304025</v>
+        <v>-0.01315916450729376</v>
       </c>
       <c r="F94">
-        <v>0.06986215821427846</v>
+        <v>-0.04161333743467951</v>
       </c>
       <c r="G94">
-        <v>-0.152356283337272</v>
+        <v>0.118802505467262</v>
       </c>
       <c r="H94">
-        <v>0.04104419304738106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03450137701322011</v>
+      </c>
+      <c r="I94">
+        <v>-0.05844985277312417</v>
+      </c>
+      <c r="J94">
+        <v>-0.01738841860744686</v>
+      </c>
+      <c r="K94">
+        <v>0.02182759342341815</v>
+      </c>
+      <c r="L94">
+        <v>-0.05504799498639844</v>
+      </c>
+      <c r="M94">
+        <v>-0.02138844359742305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09563843247944821</v>
+        <v>-0.1289402329419798</v>
       </c>
       <c r="C95">
-        <v>0.07698097130609657</v>
+        <v>-0.07007326380893986</v>
       </c>
       <c r="D95">
-        <v>-0.06678444746947966</v>
+        <v>-0.0213274887831953</v>
       </c>
       <c r="E95">
-        <v>-0.01579052872812268</v>
+        <v>-0.06028131755699047</v>
       </c>
       <c r="F95">
-        <v>-0.05589164246966898</v>
+        <v>0.07518072838006108</v>
       </c>
       <c r="G95">
-        <v>-0.02269604364116861</v>
+        <v>-0.1784875925236579</v>
       </c>
       <c r="H95">
-        <v>0.02656259619156657</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.09923727729466107</v>
+      </c>
+      <c r="I95">
+        <v>0.2038831132880506</v>
+      </c>
+      <c r="J95">
+        <v>-0.04863579595871952</v>
+      </c>
+      <c r="K95">
+        <v>0.08087636117841188</v>
+      </c>
+      <c r="L95">
+        <v>-0.01351587777096838</v>
+      </c>
+      <c r="M95">
+        <v>-0.47748558266955</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2628456054012133</v>
+        <v>-0.1623896969139645</v>
       </c>
       <c r="C97">
-        <v>0.07916957590404385</v>
+        <v>-0.002470296890960225</v>
       </c>
       <c r="D97">
-        <v>0.8694149688037173</v>
+        <v>-0.09637882013790162</v>
       </c>
       <c r="E97">
-        <v>0.151615439381431</v>
+        <v>0.9310834886812206</v>
       </c>
       <c r="F97">
-        <v>-0.05454171633395095</v>
+        <v>0.03673956577259519</v>
       </c>
       <c r="G97">
-        <v>0.1317145990372452</v>
+        <v>-0.1122201420550358</v>
       </c>
       <c r="H97">
-        <v>0.01100717336402206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03934037326816276</v>
+      </c>
+      <c r="I97">
+        <v>0.0315207914210995</v>
+      </c>
+      <c r="J97">
+        <v>0.07375173567085523</v>
+      </c>
+      <c r="K97">
+        <v>-0.04386013523343976</v>
+      </c>
+      <c r="L97">
+        <v>-0.01459836653347466</v>
+      </c>
+      <c r="M97">
+        <v>-0.04385352755792915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2774582472360381</v>
+        <v>-0.2665877450822</v>
       </c>
       <c r="C98">
-        <v>0.1147866971968773</v>
+        <v>-0.1174586360274341</v>
       </c>
       <c r="D98">
-        <v>-0.1895177400788955</v>
+        <v>0.009727162031572542</v>
       </c>
       <c r="E98">
-        <v>0.2931872226430071</v>
+        <v>-0.02297505220646332</v>
       </c>
       <c r="F98">
-        <v>-0.4598341291113359</v>
+        <v>-0.4232221302095896</v>
       </c>
       <c r="G98">
-        <v>0.25493474345811</v>
+        <v>-0.2573657202064953</v>
       </c>
       <c r="H98">
-        <v>-0.3250815445273245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1303635496718508</v>
+      </c>
+      <c r="I98">
+        <v>-0.2242137926186911</v>
+      </c>
+      <c r="J98">
+        <v>0.005221492196390781</v>
+      </c>
+      <c r="K98">
+        <v>-0.02214228089692957</v>
+      </c>
+      <c r="L98">
+        <v>0.6259683366713527</v>
+      </c>
+      <c r="M98">
+        <v>-0.1176966219524499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05153758610566293</v>
+        <v>-0.065005250241591</v>
       </c>
       <c r="C99">
-        <v>0.05726436346919107</v>
+        <v>-0.05678235169079921</v>
       </c>
       <c r="D99">
-        <v>-0.06357005482811703</v>
+        <v>-0.01152551316096888</v>
       </c>
       <c r="E99">
-        <v>-0.008176863746499266</v>
+        <v>-0.04797161842387825</v>
       </c>
       <c r="F99">
-        <v>0.002531043831138716</v>
+        <v>-0.003134102391410855</v>
       </c>
       <c r="G99">
-        <v>0.03573970636235439</v>
+        <v>0.01305246753371973</v>
       </c>
       <c r="H99">
-        <v>-0.07924770698547359</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01311914355236431</v>
+      </c>
+      <c r="I99">
+        <v>-0.03869315798262453</v>
+      </c>
+      <c r="J99">
+        <v>0.06705932127777649</v>
+      </c>
+      <c r="K99">
+        <v>-0.01074752745099675</v>
+      </c>
+      <c r="L99">
+        <v>-0.003251843085542399</v>
+      </c>
+      <c r="M99">
+        <v>-0.1172568781827478</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05219867182511483</v>
+        <v>-0.04297091462666393</v>
       </c>
       <c r="C101">
-        <v>0.01970676042720792</v>
+        <v>-0.02429024045673706</v>
       </c>
       <c r="D101">
-        <v>-0.01009139045395825</v>
+        <v>-0.001326241779568275</v>
       </c>
       <c r="E101">
-        <v>-0.01542915204997874</v>
+        <v>-0.01889135050015227</v>
       </c>
       <c r="F101">
-        <v>-0.005474198096091724</v>
+        <v>0.04904788692951624</v>
       </c>
       <c r="G101">
-        <v>-0.01432447003421405</v>
+        <v>0.04158554810977778</v>
       </c>
       <c r="H101">
-        <v>0.02740478198725739</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.04712223198413651</v>
+      </c>
+      <c r="I101">
+        <v>0.006433694779324661</v>
+      </c>
+      <c r="J101">
+        <v>-0.02226143458695358</v>
+      </c>
+      <c r="K101">
+        <v>0.03885303970834444</v>
+      </c>
+      <c r="L101">
+        <v>0.02930275904717141</v>
+      </c>
+      <c r="M101">
+        <v>0.0284837912940321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
